--- a/Mendel.xlsx
+++ b/Mendel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6860EBD-AEB8-43AC-9BD1-F5501362AB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4CC27-64BE-4309-840C-BD93652FDD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61EDDE77-E8CE-4C6F-B50E-9D9497CBBB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Disc" sheetId="2" r:id="rId1"/>
@@ -166,7 +166,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                                                                                                                      Facundo Forte</t>
+      <t xml:space="preserve">                                                                       Facundo (https://github.com/Fasuplusplus)</t>
     </r>
   </si>
 </sst>
@@ -527,12 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -566,6 +560,12 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,103 +884,103 @@
   <dimension ref="D2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="24" t="s">
+    <row r="2" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-    </row>
-    <row r="5" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-    </row>
-    <row r="8" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-    </row>
-    <row r="10" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+    </row>
+    <row r="5" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="8" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="9" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1000,9 +1000,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -1049,400 +1049,400 @@
         <v>3</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="19" t="str">
+      <c r="H5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!D13:D20)</f>
         <v/>
       </c>
-      <c r="I5" s="19" t="str">
+      <c r="I5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!E13:E20)</f>
         <v/>
       </c>
-      <c r="J5" s="19" t="str">
+      <c r="J5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F13:F20)</f>
         <v/>
       </c>
-      <c r="K5" s="19" t="str">
+      <c r="K5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!G13:G20)</f>
         <v/>
       </c>
-      <c r="L5" s="19" t="str">
+      <c r="L5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!H13:H20)</f>
         <v/>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!I13:I20)</f>
         <v/>
       </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!J13:J20)</f>
         <v/>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="17" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!K13:K20)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F2:M2)</f>
         <v/>
       </c>
-      <c r="H6" s="21" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G6,1,1)&amp;MID(H$5,2,1)&amp;MID($G6,2,1)&amp;MID(H$5,3,1)&amp;MID($G6,3,1)&amp;MID(H$5,4,1)&amp;MID($G6,4,1)&amp;MID(H$5,5,1)&amp;MID($G6,5,1)&amp;MID(H$5,6,1)&amp;MID($G6,6,1)&amp;MID(H$5,7,1)&amp;MID($G6,7,1)&amp;MID(H$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G6,1,1)&amp;MID(I$5,2,1)&amp;MID($G6,2,1)&amp;MID(I$5,3,1)&amp;MID($G6,3,1)&amp;MID(I$5,4,1)&amp;MID($G6,4,1)&amp;MID(I$5,5,1)&amp;MID($G6,5,1)&amp;MID(I$5,6,1)&amp;MID($G6,6,1)&amp;MID(I$5,7,1)&amp;MID($G6,7,1)&amp;MID(I$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="J6" s="22" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G6,1,1)&amp;MID(J$5,2,1)&amp;MID($G6,2,1)&amp;MID(J$5,3,1)&amp;MID($G6,3,1)&amp;MID(J$5,4,1)&amp;MID($G6,4,1)&amp;MID(J$5,5,1)&amp;MID($G6,5,1)&amp;MID(J$5,6,1)&amp;MID($G6,6,1)&amp;MID(J$5,7,1)&amp;MID($G6,7,1)&amp;MID(J$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G6,1,1)&amp;MID(K$5,2,1)&amp;MID($G6,2,1)&amp;MID(K$5,3,1)&amp;MID($G6,3,1)&amp;MID(K$5,4,1)&amp;MID($G6,4,1)&amp;MID(K$5,5,1)&amp;MID($G6,5,1)&amp;MID(K$5,6,1)&amp;MID($G6,6,1)&amp;MID(K$5,7,1)&amp;MID($G6,7,1)&amp;MID(K$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="L6" s="22" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G6,1,1)&amp;MID(L$5,2,1)&amp;MID($G6,2,1)&amp;MID(L$5,3,1)&amp;MID($G6,3,1)&amp;MID(L$5,4,1)&amp;MID($G6,4,1)&amp;MID(L$5,5,1)&amp;MID($G6,5,1)&amp;MID(L$5,6,1)&amp;MID($G6,6,1)&amp;MID(L$5,7,1)&amp;MID($G6,7,1)&amp;MID(L$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="22" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G6,1,1)&amp;MID(M$5,2,1)&amp;MID($G6,2,1)&amp;MID(M$5,3,1)&amp;MID($G6,3,1)&amp;MID(M$5,4,1)&amp;MID($G6,4,1)&amp;MID(M$5,5,1)&amp;MID($G6,5,1)&amp;MID(M$5,6,1)&amp;MID($G6,6,1)&amp;MID(M$5,7,1)&amp;MID($G6,7,1)&amp;MID(M$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="22" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G6,1,1)&amp;MID(N$5,2,1)&amp;MID($G6,2,1)&amp;MID(N$5,3,1)&amp;MID($G6,3,1)&amp;MID(N$5,4,1)&amp;MID($G6,4,1)&amp;MID(N$5,5,1)&amp;MID($G6,5,1)&amp;MID(N$5,6,1)&amp;MID($G6,6,1)&amp;MID(N$5,7,1)&amp;MID($G6,7,1)&amp;MID(N$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="22" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G6,1,1)&amp;MID(O$5,2,1)&amp;MID($G6,2,1)&amp;MID(O$5,3,1)&amp;MID($G6,3,1)&amp;MID(O$5,4,1)&amp;MID($G6,4,1)&amp;MID(O$5,5,1)&amp;MID($G6,5,1)&amp;MID(O$5,6,1)&amp;MID($G6,6,1)&amp;MID(O$5,7,1)&amp;MID($G6,7,1)&amp;MID(O$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="19" t="str">
+        <f t="shared" ref="H6:O13" si="5">IF(AND(LEN(H$5)&gt;0,LEN($G6)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G6,1,1)&amp;MID(H$5,2,1)&amp;MID($G6,2,1)&amp;MID(H$5,3,1)&amp;MID($G6,3,1)&amp;MID(H$5,4,1)&amp;MID($G6,4,1)&amp;MID(H$5,5,1)&amp;MID($G6,5,1)&amp;MID(H$5,6,1)&amp;MID($G6,6,1)&amp;MID(H$5,7,1)&amp;MID($G6,7,1)&amp;MID(H$5,8,1)&amp;MID($G6,8,1),NumCar*2),"")</f>
+        <v/>
+      </c>
+      <c r="I6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="N6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O6" s="20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="14"/>
       <c r="F7" s="8">
         <f>+F6+1</f>
         <v>2</v>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F3:M3)</f>
         <v/>
       </c>
-      <c r="H7" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G7,1,1)&amp;MID(H$5,2,1)&amp;MID($G7,2,1)&amp;MID(H$5,3,1)&amp;MID($G7,3,1)&amp;MID(H$5,4,1)&amp;MID($G7,4,1)&amp;MID(H$5,5,1)&amp;MID($G7,5,1)&amp;MID(H$5,6,1)&amp;MID($G7,6,1)&amp;MID(H$5,7,1)&amp;MID($G7,7,1)&amp;MID(H$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+      <c r="H7" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I7" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G7,1,1)&amp;MID(I$5,2,1)&amp;MID($G7,2,1)&amp;MID(I$5,3,1)&amp;MID($G7,3,1)&amp;MID(I$5,4,1)&amp;MID($G7,4,1)&amp;MID(I$5,5,1)&amp;MID($G7,5,1)&amp;MID(I$5,6,1)&amp;MID($G7,6,1)&amp;MID(I$5,7,1)&amp;MID($G7,7,1)&amp;MID(I$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J7" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G7,1,1)&amp;MID(J$5,2,1)&amp;MID($G7,2,1)&amp;MID(J$5,3,1)&amp;MID($G7,3,1)&amp;MID(J$5,4,1)&amp;MID($G7,4,1)&amp;MID(J$5,5,1)&amp;MID($G7,5,1)&amp;MID(J$5,6,1)&amp;MID($G7,6,1)&amp;MID(J$5,7,1)&amp;MID($G7,7,1)&amp;MID(J$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K7" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G7,1,1)&amp;MID(K$5,2,1)&amp;MID($G7,2,1)&amp;MID(K$5,3,1)&amp;MID($G7,3,1)&amp;MID(K$5,4,1)&amp;MID($G7,4,1)&amp;MID(K$5,5,1)&amp;MID($G7,5,1)&amp;MID(K$5,6,1)&amp;MID($G7,6,1)&amp;MID(K$5,7,1)&amp;MID($G7,7,1)&amp;MID(K$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L7" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G7,1,1)&amp;MID(L$5,2,1)&amp;MID($G7,2,1)&amp;MID(L$5,3,1)&amp;MID($G7,3,1)&amp;MID(L$5,4,1)&amp;MID($G7,4,1)&amp;MID(L$5,5,1)&amp;MID($G7,5,1)&amp;MID(L$5,6,1)&amp;MID($G7,6,1)&amp;MID(L$5,7,1)&amp;MID($G7,7,1)&amp;MID(L$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G7,1,1)&amp;MID(M$5,2,1)&amp;MID($G7,2,1)&amp;MID(M$5,3,1)&amp;MID($G7,3,1)&amp;MID(M$5,4,1)&amp;MID($G7,4,1)&amp;MID(M$5,5,1)&amp;MID($G7,5,1)&amp;MID(M$5,6,1)&amp;MID($G7,6,1)&amp;MID(M$5,7,1)&amp;MID($G7,7,1)&amp;MID(M$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N7" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G7,1,1)&amp;MID(N$5,2,1)&amp;MID($G7,2,1)&amp;MID(N$5,3,1)&amp;MID($G7,3,1)&amp;MID(N$5,4,1)&amp;MID($G7,4,1)&amp;MID(N$5,5,1)&amp;MID($G7,5,1)&amp;MID(N$5,6,1)&amp;MID($G7,6,1)&amp;MID(N$5,7,1)&amp;MID($G7,7,1)&amp;MID(N$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G7)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G7,1,1)&amp;MID(O$5,2,1)&amp;MID($G7,2,1)&amp;MID(O$5,3,1)&amp;MID($G7,3,1)&amp;MID(O$5,4,1)&amp;MID($G7,4,1)&amp;MID(O$5,5,1)&amp;MID($G7,5,1)&amp;MID(O$5,6,1)&amp;MID($G7,6,1)&amp;MID(O$5,7,1)&amp;MID($G7,7,1)&amp;MID(O$5,8,1)&amp;MID($G7,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="3"/>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F13" si="5">+F7+1</f>
+        <f t="shared" ref="F8:F13" si="6">+F7+1</f>
         <v>3</v>
       </c>
-      <c r="G8" s="20" t="str">
+      <c r="G8" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F4:M4)</f>
         <v/>
       </c>
-      <c r="H8" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G8,1,1)&amp;MID(H$5,2,1)&amp;MID($G8,2,1)&amp;MID(H$5,3,1)&amp;MID($G8,3,1)&amp;MID(H$5,4,1)&amp;MID($G8,4,1)&amp;MID(H$5,5,1)&amp;MID($G8,5,1)&amp;MID(H$5,6,1)&amp;MID($G8,6,1)&amp;MID(H$5,7,1)&amp;MID($G8,7,1)&amp;MID(H$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+      <c r="H8" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G8,1,1)&amp;MID(I$5,2,1)&amp;MID($G8,2,1)&amp;MID(I$5,3,1)&amp;MID($G8,3,1)&amp;MID(I$5,4,1)&amp;MID($G8,4,1)&amp;MID(I$5,5,1)&amp;MID($G8,5,1)&amp;MID(I$5,6,1)&amp;MID($G8,6,1)&amp;MID(I$5,7,1)&amp;MID($G8,7,1)&amp;MID(I$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J8" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G8,1,1)&amp;MID(J$5,2,1)&amp;MID($G8,2,1)&amp;MID(J$5,3,1)&amp;MID($G8,3,1)&amp;MID(J$5,4,1)&amp;MID($G8,4,1)&amp;MID(J$5,5,1)&amp;MID($G8,5,1)&amp;MID(J$5,6,1)&amp;MID($G8,6,1)&amp;MID(J$5,7,1)&amp;MID($G8,7,1)&amp;MID(J$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K8" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G8,1,1)&amp;MID(K$5,2,1)&amp;MID($G8,2,1)&amp;MID(K$5,3,1)&amp;MID($G8,3,1)&amp;MID(K$5,4,1)&amp;MID($G8,4,1)&amp;MID(K$5,5,1)&amp;MID($G8,5,1)&amp;MID(K$5,6,1)&amp;MID($G8,6,1)&amp;MID(K$5,7,1)&amp;MID($G8,7,1)&amp;MID(K$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L8" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G8,1,1)&amp;MID(L$5,2,1)&amp;MID($G8,2,1)&amp;MID(L$5,3,1)&amp;MID($G8,3,1)&amp;MID(L$5,4,1)&amp;MID($G8,4,1)&amp;MID(L$5,5,1)&amp;MID($G8,5,1)&amp;MID(L$5,6,1)&amp;MID($G8,6,1)&amp;MID(L$5,7,1)&amp;MID($G8,7,1)&amp;MID(L$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G8,1,1)&amp;MID(M$5,2,1)&amp;MID($G8,2,1)&amp;MID(M$5,3,1)&amp;MID($G8,3,1)&amp;MID(M$5,4,1)&amp;MID($G8,4,1)&amp;MID(M$5,5,1)&amp;MID($G8,5,1)&amp;MID(M$5,6,1)&amp;MID($G8,6,1)&amp;MID(M$5,7,1)&amp;MID($G8,7,1)&amp;MID(M$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N8" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G8,1,1)&amp;MID(N$5,2,1)&amp;MID($G8,2,1)&amp;MID(N$5,3,1)&amp;MID($G8,3,1)&amp;MID(N$5,4,1)&amp;MID($G8,4,1)&amp;MID(N$5,5,1)&amp;MID($G8,5,1)&amp;MID(N$5,6,1)&amp;MID($G8,6,1)&amp;MID(N$5,7,1)&amp;MID($G8,7,1)&amp;MID(N$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O8" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G8)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G8,1,1)&amp;MID(O$5,2,1)&amp;MID($G8,2,1)&amp;MID(O$5,3,1)&amp;MID($G8,3,1)&amp;MID(O$5,4,1)&amp;MID($G8,4,1)&amp;MID(O$5,5,1)&amp;MID($G8,5,1)&amp;MID(O$5,6,1)&amp;MID($G8,6,1)&amp;MID(O$5,7,1)&amp;MID($G8,7,1)&amp;MID(O$5,8,1)&amp;MID($G8,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <f>LEN(Padre1)/2</f>
         <v>0</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="16"/>
       <c r="F9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="G9" s="20" t="str">
+      <c r="G9" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F5:M5)</f>
         <v/>
       </c>
-      <c r="H9" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G9,1,1)&amp;MID(H$5,2,1)&amp;MID($G9,2,1)&amp;MID(H$5,3,1)&amp;MID($G9,3,1)&amp;MID(H$5,4,1)&amp;MID($G9,4,1)&amp;MID(H$5,5,1)&amp;MID($G9,5,1)&amp;MID(H$5,6,1)&amp;MID($G9,6,1)&amp;MID(H$5,7,1)&amp;MID($G9,7,1)&amp;MID(H$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+      <c r="H9" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G9,1,1)&amp;MID(I$5,2,1)&amp;MID($G9,2,1)&amp;MID(I$5,3,1)&amp;MID($G9,3,1)&amp;MID(I$5,4,1)&amp;MID($G9,4,1)&amp;MID(I$5,5,1)&amp;MID($G9,5,1)&amp;MID(I$5,6,1)&amp;MID($G9,6,1)&amp;MID(I$5,7,1)&amp;MID($G9,7,1)&amp;MID(I$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J9" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G9,1,1)&amp;MID(J$5,2,1)&amp;MID($G9,2,1)&amp;MID(J$5,3,1)&amp;MID($G9,3,1)&amp;MID(J$5,4,1)&amp;MID($G9,4,1)&amp;MID(J$5,5,1)&amp;MID($G9,5,1)&amp;MID(J$5,6,1)&amp;MID($G9,6,1)&amp;MID(J$5,7,1)&amp;MID($G9,7,1)&amp;MID(J$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K9" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G9,1,1)&amp;MID(K$5,2,1)&amp;MID($G9,2,1)&amp;MID(K$5,3,1)&amp;MID($G9,3,1)&amp;MID(K$5,4,1)&amp;MID($G9,4,1)&amp;MID(K$5,5,1)&amp;MID($G9,5,1)&amp;MID(K$5,6,1)&amp;MID($G9,6,1)&amp;MID(K$5,7,1)&amp;MID($G9,7,1)&amp;MID(K$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L9" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G9,1,1)&amp;MID(L$5,2,1)&amp;MID($G9,2,1)&amp;MID(L$5,3,1)&amp;MID($G9,3,1)&amp;MID(L$5,4,1)&amp;MID($G9,4,1)&amp;MID(L$5,5,1)&amp;MID($G9,5,1)&amp;MID(L$5,6,1)&amp;MID($G9,6,1)&amp;MID(L$5,7,1)&amp;MID($G9,7,1)&amp;MID(L$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G9,1,1)&amp;MID(M$5,2,1)&amp;MID($G9,2,1)&amp;MID(M$5,3,1)&amp;MID($G9,3,1)&amp;MID(M$5,4,1)&amp;MID($G9,4,1)&amp;MID(M$5,5,1)&amp;MID($G9,5,1)&amp;MID(M$5,6,1)&amp;MID($G9,6,1)&amp;MID(M$5,7,1)&amp;MID($G9,7,1)&amp;MID(M$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N9" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G9,1,1)&amp;MID(N$5,2,1)&amp;MID($G9,2,1)&amp;MID(N$5,3,1)&amp;MID($G9,3,1)&amp;MID(N$5,4,1)&amp;MID($G9,4,1)&amp;MID(N$5,5,1)&amp;MID($G9,5,1)&amp;MID(N$5,6,1)&amp;MID($G9,6,1)&amp;MID(N$5,7,1)&amp;MID($G9,7,1)&amp;MID(N$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O9" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G9)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G9,1,1)&amp;MID(O$5,2,1)&amp;MID($G9,2,1)&amp;MID(O$5,3,1)&amp;MID($G9,3,1)&amp;MID(O$5,4,1)&amp;MID($G9,4,1)&amp;MID(O$5,5,1)&amp;MID($G9,5,1)&amp;MID(O$5,6,1)&amp;MID($G9,6,1)&amp;MID(O$5,7,1)&amp;MID($G9,7,1)&amp;MID(O$5,8,1)&amp;MID($G9,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="F10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="G10" s="20" t="str">
+      <c r="G10" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F6:M6)</f>
         <v/>
       </c>
-      <c r="H10" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G10,1,1)&amp;MID(H$5,2,1)&amp;MID($G10,2,1)&amp;MID(H$5,3,1)&amp;MID($G10,3,1)&amp;MID(H$5,4,1)&amp;MID($G10,4,1)&amp;MID(H$5,5,1)&amp;MID($G10,5,1)&amp;MID(H$5,6,1)&amp;MID($G10,6,1)&amp;MID(H$5,7,1)&amp;MID($G10,7,1)&amp;MID(H$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+      <c r="H10" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G10,1,1)&amp;MID(I$5,2,1)&amp;MID($G10,2,1)&amp;MID(I$5,3,1)&amp;MID($G10,3,1)&amp;MID(I$5,4,1)&amp;MID($G10,4,1)&amp;MID(I$5,5,1)&amp;MID($G10,5,1)&amp;MID(I$5,6,1)&amp;MID($G10,6,1)&amp;MID(I$5,7,1)&amp;MID($G10,7,1)&amp;MID(I$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J10" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G10,1,1)&amp;MID(J$5,2,1)&amp;MID($G10,2,1)&amp;MID(J$5,3,1)&amp;MID($G10,3,1)&amp;MID(J$5,4,1)&amp;MID($G10,4,1)&amp;MID(J$5,5,1)&amp;MID($G10,5,1)&amp;MID(J$5,6,1)&amp;MID($G10,6,1)&amp;MID(J$5,7,1)&amp;MID($G10,7,1)&amp;MID(J$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K10" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G10,1,1)&amp;MID(K$5,2,1)&amp;MID($G10,2,1)&amp;MID(K$5,3,1)&amp;MID($G10,3,1)&amp;MID(K$5,4,1)&amp;MID($G10,4,1)&amp;MID(K$5,5,1)&amp;MID($G10,5,1)&amp;MID(K$5,6,1)&amp;MID($G10,6,1)&amp;MID(K$5,7,1)&amp;MID($G10,7,1)&amp;MID(K$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L10" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G10,1,1)&amp;MID(L$5,2,1)&amp;MID($G10,2,1)&amp;MID(L$5,3,1)&amp;MID($G10,3,1)&amp;MID(L$5,4,1)&amp;MID($G10,4,1)&amp;MID(L$5,5,1)&amp;MID($G10,5,1)&amp;MID(L$5,6,1)&amp;MID($G10,6,1)&amp;MID(L$5,7,1)&amp;MID($G10,7,1)&amp;MID(L$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G10,1,1)&amp;MID(M$5,2,1)&amp;MID($G10,2,1)&amp;MID(M$5,3,1)&amp;MID($G10,3,1)&amp;MID(M$5,4,1)&amp;MID($G10,4,1)&amp;MID(M$5,5,1)&amp;MID($G10,5,1)&amp;MID(M$5,6,1)&amp;MID($G10,6,1)&amp;MID(M$5,7,1)&amp;MID($G10,7,1)&amp;MID(M$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N10" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G10,1,1)&amp;MID(N$5,2,1)&amp;MID($G10,2,1)&amp;MID(N$5,3,1)&amp;MID($G10,3,1)&amp;MID(N$5,4,1)&amp;MID($G10,4,1)&amp;MID(N$5,5,1)&amp;MID($G10,5,1)&amp;MID(N$5,6,1)&amp;MID($G10,6,1)&amp;MID(N$5,7,1)&amp;MID($G10,7,1)&amp;MID(N$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O10" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G10)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G10,1,1)&amp;MID(O$5,2,1)&amp;MID($G10,2,1)&amp;MID(O$5,3,1)&amp;MID($G10,3,1)&amp;MID(O$5,4,1)&amp;MID($G10,4,1)&amp;MID(O$5,5,1)&amp;MID($G10,5,1)&amp;MID(O$5,6,1)&amp;MID($G10,6,1)&amp;MID(O$5,7,1)&amp;MID($G10,7,1)&amp;MID(O$5,8,1)&amp;MID($G10,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F7:M7)</f>
         <v/>
       </c>
-      <c r="H11" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G11,1,1)&amp;MID(H$5,2,1)&amp;MID($G11,2,1)&amp;MID(H$5,3,1)&amp;MID($G11,3,1)&amp;MID(H$5,4,1)&amp;MID($G11,4,1)&amp;MID(H$5,5,1)&amp;MID($G11,5,1)&amp;MID(H$5,6,1)&amp;MID($G11,6,1)&amp;MID(H$5,7,1)&amp;MID($G11,7,1)&amp;MID(H$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+      <c r="H11" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G11,1,1)&amp;MID(I$5,2,1)&amp;MID($G11,2,1)&amp;MID(I$5,3,1)&amp;MID($G11,3,1)&amp;MID(I$5,4,1)&amp;MID($G11,4,1)&amp;MID(I$5,5,1)&amp;MID($G11,5,1)&amp;MID(I$5,6,1)&amp;MID($G11,6,1)&amp;MID(I$5,7,1)&amp;MID($G11,7,1)&amp;MID(I$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J11" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G11,1,1)&amp;MID(J$5,2,1)&amp;MID($G11,2,1)&amp;MID(J$5,3,1)&amp;MID($G11,3,1)&amp;MID(J$5,4,1)&amp;MID($G11,4,1)&amp;MID(J$5,5,1)&amp;MID($G11,5,1)&amp;MID(J$5,6,1)&amp;MID($G11,6,1)&amp;MID(J$5,7,1)&amp;MID($G11,7,1)&amp;MID(J$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K11" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G11,1,1)&amp;MID(K$5,2,1)&amp;MID($G11,2,1)&amp;MID(K$5,3,1)&amp;MID($G11,3,1)&amp;MID(K$5,4,1)&amp;MID($G11,4,1)&amp;MID(K$5,5,1)&amp;MID($G11,5,1)&amp;MID(K$5,6,1)&amp;MID($G11,6,1)&amp;MID(K$5,7,1)&amp;MID($G11,7,1)&amp;MID(K$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L11" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G11,1,1)&amp;MID(L$5,2,1)&amp;MID($G11,2,1)&amp;MID(L$5,3,1)&amp;MID($G11,3,1)&amp;MID(L$5,4,1)&amp;MID($G11,4,1)&amp;MID(L$5,5,1)&amp;MID($G11,5,1)&amp;MID(L$5,6,1)&amp;MID($G11,6,1)&amp;MID(L$5,7,1)&amp;MID($G11,7,1)&amp;MID(L$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G11,1,1)&amp;MID(M$5,2,1)&amp;MID($G11,2,1)&amp;MID(M$5,3,1)&amp;MID($G11,3,1)&amp;MID(M$5,4,1)&amp;MID($G11,4,1)&amp;MID(M$5,5,1)&amp;MID($G11,5,1)&amp;MID(M$5,6,1)&amp;MID($G11,6,1)&amp;MID(M$5,7,1)&amp;MID($G11,7,1)&amp;MID(M$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N11" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G11,1,1)&amp;MID(N$5,2,1)&amp;MID($G11,2,1)&amp;MID(N$5,3,1)&amp;MID($G11,3,1)&amp;MID(N$5,4,1)&amp;MID($G11,4,1)&amp;MID(N$5,5,1)&amp;MID($G11,5,1)&amp;MID(N$5,6,1)&amp;MID($G11,6,1)&amp;MID(N$5,7,1)&amp;MID($G11,7,1)&amp;MID(N$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O11" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G11)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G11,1,1)&amp;MID(O$5,2,1)&amp;MID($G11,2,1)&amp;MID(O$5,3,1)&amp;MID($G11,3,1)&amp;MID(O$5,4,1)&amp;MID($G11,4,1)&amp;MID(O$5,5,1)&amp;MID($G11,5,1)&amp;MID(O$5,6,1)&amp;MID($G11,6,1)&amp;MID(O$5,7,1)&amp;MID($G11,7,1)&amp;MID(O$5,8,1)&amp;MID($G11,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F8:M8)</f>
         <v/>
       </c>
-      <c r="H12" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G12,1,1)&amp;MID(H$5,2,1)&amp;MID($G12,2,1)&amp;MID(H$5,3,1)&amp;MID($G12,3,1)&amp;MID(H$5,4,1)&amp;MID($G12,4,1)&amp;MID(H$5,5,1)&amp;MID($G12,5,1)&amp;MID(H$5,6,1)&amp;MID($G12,6,1)&amp;MID(H$5,7,1)&amp;MID($G12,7,1)&amp;MID(H$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+      <c r="H12" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I12" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G12,1,1)&amp;MID(I$5,2,1)&amp;MID($G12,2,1)&amp;MID(I$5,3,1)&amp;MID($G12,3,1)&amp;MID(I$5,4,1)&amp;MID($G12,4,1)&amp;MID(I$5,5,1)&amp;MID($G12,5,1)&amp;MID(I$5,6,1)&amp;MID($G12,6,1)&amp;MID(I$5,7,1)&amp;MID($G12,7,1)&amp;MID(I$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J12" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G12,1,1)&amp;MID(J$5,2,1)&amp;MID($G12,2,1)&amp;MID(J$5,3,1)&amp;MID($G12,3,1)&amp;MID(J$5,4,1)&amp;MID($G12,4,1)&amp;MID(J$5,5,1)&amp;MID($G12,5,1)&amp;MID(J$5,6,1)&amp;MID($G12,6,1)&amp;MID(J$5,7,1)&amp;MID($G12,7,1)&amp;MID(J$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K12" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G12,1,1)&amp;MID(K$5,2,1)&amp;MID($G12,2,1)&amp;MID(K$5,3,1)&amp;MID($G12,3,1)&amp;MID(K$5,4,1)&amp;MID($G12,4,1)&amp;MID(K$5,5,1)&amp;MID($G12,5,1)&amp;MID(K$5,6,1)&amp;MID($G12,6,1)&amp;MID(K$5,7,1)&amp;MID($G12,7,1)&amp;MID(K$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L12" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G12,1,1)&amp;MID(L$5,2,1)&amp;MID($G12,2,1)&amp;MID(L$5,3,1)&amp;MID($G12,3,1)&amp;MID(L$5,4,1)&amp;MID($G12,4,1)&amp;MID(L$5,5,1)&amp;MID($G12,5,1)&amp;MID(L$5,6,1)&amp;MID($G12,6,1)&amp;MID(L$5,7,1)&amp;MID($G12,7,1)&amp;MID(L$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G12,1,1)&amp;MID(M$5,2,1)&amp;MID($G12,2,1)&amp;MID(M$5,3,1)&amp;MID($G12,3,1)&amp;MID(M$5,4,1)&amp;MID($G12,4,1)&amp;MID(M$5,5,1)&amp;MID($G12,5,1)&amp;MID(M$5,6,1)&amp;MID($G12,6,1)&amp;MID(M$5,7,1)&amp;MID($G12,7,1)&amp;MID(M$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N12" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G12,1,1)&amp;MID(N$5,2,1)&amp;MID($G12,2,1)&amp;MID(N$5,3,1)&amp;MID($G12,3,1)&amp;MID(N$5,4,1)&amp;MID($G12,4,1)&amp;MID(N$5,5,1)&amp;MID($G12,5,1)&amp;MID(N$5,6,1)&amp;MID($G12,6,1)&amp;MID(N$5,7,1)&amp;MID($G12,7,1)&amp;MID(N$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O12" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G12)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G12,1,1)&amp;MID(O$5,2,1)&amp;MID($G12,2,1)&amp;MID(O$5,3,1)&amp;MID($G12,3,1)&amp;MID(O$5,4,1)&amp;MID($G12,4,1)&amp;MID(O$5,5,1)&amp;MID($G12,5,1)&amp;MID(O$5,6,1)&amp;MID($G12,6,1)&amp;MID(O$5,7,1)&amp;MID($G12,7,1)&amp;MID(O$5,8,1)&amp;MID($G12,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" s="18" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,Maquina!F9:M9)</f>
         <v/>
       </c>
-      <c r="H13" s="23" t="str">
-        <f>IF(AND(LEN(H$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(H$5,1,1)&amp;MID($G13,1,1)&amp;MID(H$5,2,1)&amp;MID($G13,2,1)&amp;MID(H$5,3,1)&amp;MID($G13,3,1)&amp;MID(H$5,4,1)&amp;MID($G13,4,1)&amp;MID(H$5,5,1)&amp;MID($G13,5,1)&amp;MID(H$5,6,1)&amp;MID($G13,6,1)&amp;MID(H$5,7,1)&amp;MID($G13,7,1)&amp;MID(H$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+      <c r="H13" s="21" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(AND(LEN(I$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(I$5,1,1)&amp;MID($G13,1,1)&amp;MID(I$5,2,1)&amp;MID($G13,2,1)&amp;MID(I$5,3,1)&amp;MID($G13,3,1)&amp;MID(I$5,4,1)&amp;MID($G13,4,1)&amp;MID(I$5,5,1)&amp;MID($G13,5,1)&amp;MID(I$5,6,1)&amp;MID($G13,6,1)&amp;MID(I$5,7,1)&amp;MID($G13,7,1)&amp;MID(I$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IF(AND(LEN(J$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(J$5,1,1)&amp;MID($G13,1,1)&amp;MID(J$5,2,1)&amp;MID($G13,2,1)&amp;MID(J$5,3,1)&amp;MID($G13,3,1)&amp;MID(J$5,4,1)&amp;MID($G13,4,1)&amp;MID(J$5,5,1)&amp;MID($G13,5,1)&amp;MID(J$5,6,1)&amp;MID($G13,6,1)&amp;MID(J$5,7,1)&amp;MID($G13,7,1)&amp;MID(J$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K13" s="1" t="str">
-        <f>IF(AND(LEN(K$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(K$5,1,1)&amp;MID($G13,1,1)&amp;MID(K$5,2,1)&amp;MID($G13,2,1)&amp;MID(K$5,3,1)&amp;MID($G13,3,1)&amp;MID(K$5,4,1)&amp;MID($G13,4,1)&amp;MID(K$5,5,1)&amp;MID($G13,5,1)&amp;MID(K$5,6,1)&amp;MID($G13,6,1)&amp;MID(K$5,7,1)&amp;MID($G13,7,1)&amp;MID(K$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L13" s="1" t="str">
-        <f>IF(AND(LEN(L$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(L$5,1,1)&amp;MID($G13,1,1)&amp;MID(L$5,2,1)&amp;MID($G13,2,1)&amp;MID(L$5,3,1)&amp;MID($G13,3,1)&amp;MID(L$5,4,1)&amp;MID($G13,4,1)&amp;MID(L$5,5,1)&amp;MID($G13,5,1)&amp;MID(L$5,6,1)&amp;MID($G13,6,1)&amp;MID(L$5,7,1)&amp;MID($G13,7,1)&amp;MID(L$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IF(AND(LEN(M$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(M$5,1,1)&amp;MID($G13,1,1)&amp;MID(M$5,2,1)&amp;MID($G13,2,1)&amp;MID(M$5,3,1)&amp;MID($G13,3,1)&amp;MID(M$5,4,1)&amp;MID($G13,4,1)&amp;MID(M$5,5,1)&amp;MID($G13,5,1)&amp;MID(M$5,6,1)&amp;MID($G13,6,1)&amp;MID(M$5,7,1)&amp;MID($G13,7,1)&amp;MID(M$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N13" s="1" t="str">
-        <f>IF(AND(LEN(N$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(N$5,1,1)&amp;MID($G13,1,1)&amp;MID(N$5,2,1)&amp;MID($G13,2,1)&amp;MID(N$5,3,1)&amp;MID($G13,3,1)&amp;MID(N$5,4,1)&amp;MID($G13,4,1)&amp;MID(N$5,5,1)&amp;MID($G13,5,1)&amp;MID(N$5,6,1)&amp;MID($G13,6,1)&amp;MID(N$5,7,1)&amp;MID($G13,7,1)&amp;MID(N$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" s="1" t="str">
-        <f>IF(AND(LEN(O$5)&gt;0,LEN($G13)&gt;0),LEFT(MID(O$5,1,1)&amp;MID($G13,1,1)&amp;MID(O$5,2,1)&amp;MID($G13,2,1)&amp;MID(O$5,3,1)&amp;MID($G13,3,1)&amp;MID(O$5,4,1)&amp;MID($G13,4,1)&amp;MID(O$5,5,1)&amp;MID($G13,5,1)&amp;MID(O$5,6,1)&amp;MID($G13,6,1)&amp;MID(O$5,7,1)&amp;MID($G13,7,1)&amp;MID(O$5,8,1)&amp;MID($G13,8,1),NumCar*2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1469,9 +1469,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="e">
         <f t="shared" ref="D2:D8" si="0">DEC2BIN(E1,NumCar)</f>
         <v>#NUM!</v>
@@ -1489,395 +1489,395 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D2,O$12,1),1),"")</f>
+        <f t="shared" ref="F2:M9" si="1">IF(AND(O$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D2,O$12,1),1),"")</f>
         <v/>
       </c>
       <c r="G2" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D2,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H2" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D2,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I2" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D2,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J2" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D2,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K2" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D2,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L2" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D2,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M2" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E2&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D2,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E9" si="1">+E2+1</f>
+        <f t="shared" ref="E3:E9" si="2">+E2+1</f>
         <v>2</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D3,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G3" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D3,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H3" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D3,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I3" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D3,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J3" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D3,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K3" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D3,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L3" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D3,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M3" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E3&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D3,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D4,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D4,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H4" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D4,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I4" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D4,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J4" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D4,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K4" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D4,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L4" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D4,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M4" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E4&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D4,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D5,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G5" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D5,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D5,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I5" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D5,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J5" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D5,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K5" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D5,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L5" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D5,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M5" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E5&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D5,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D6,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G6" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D6,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D6,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I6" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D6,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J6" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D6,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K6" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D6,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L6" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D6,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M6" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E6&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D6,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D7,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G7" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D7,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H7" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D7,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I7" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D7,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J7" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D7,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K7" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D7,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L7" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D7,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M7" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E7&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D7,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D8" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#NUM!</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D8,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D8,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H8" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D8,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D8,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D8,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D8,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D8,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M8" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E8&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D8,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D9" s="1" t="e">
         <f>DEC2BIN(E8,NumCar)</f>
         <v>#NUM!</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>IF(AND(O$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*O$12-1)+MID($D9,O$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G9" s="4" t="str">
-        <f>IF(AND(P$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*P$12-1)+MID($D9,P$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H9" s="4" t="str">
-        <f>IF(AND(Q$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*Q$12-1)+MID($D9,Q$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I9" s="4" t="str">
-        <f>IF(AND(R$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*R$12-1)+MID($D9,R$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J9" s="4" t="str">
-        <f>IF(AND(S$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*S$12-1)+MID($D9,S$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K9" s="4" t="str">
-        <f>IF(AND(T$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*T$12-1)+MID($D9,T$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L9" s="4" t="str">
-        <f>IF(AND(U$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*U$12-1)+MID($D9,U$12,1),1),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M9" s="4" t="str">
-        <f>IF(AND(V$12&lt;=NumCar,$E9&lt;=NumLet),MID(Padre2,(2*V$12-1)+MID($D9,V$12,1),1),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D11" s="1" t="e">
         <f>+DEC2BIN(B11,NumCar)</f>
         <v>#NUM!</v>
       </c>
       <c r="E11" s="1" t="e">
-        <f t="shared" ref="E11:K11" si="2">+DEC2BIN(D12,NumCar)</f>
+        <f t="shared" ref="E11:K11" si="3">+DEC2BIN(D12,NumCar)</f>
         <v>#NUM!</v>
       </c>
       <c r="F11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="G11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="H11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="I11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="J11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="K11" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="O11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" ref="E12:J12" si="3">+D12+1</f>
+        <f t="shared" ref="E12:J12" si="4">+D12+1</f>
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K12" s="1">
@@ -1891,19 +1891,19 @@
         <v>2</v>
       </c>
       <c r="Q12">
-        <f t="shared" ref="Q12:V12" si="4">P12+1</f>
+        <f t="shared" ref="Q12:V12" si="5">P12+1</f>
         <v>3</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="S12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="T12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="U12">
@@ -1911,41 +1911,41 @@
         <v>7</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(D$11,$O12,1),1),"")</f>
+        <f t="shared" ref="D13:K20" si="6">IF(AND($O12&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(D$11,$O12,1),1),"")</f>
         <v/>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(E$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(F$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(G$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(H$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(I$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(J$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K13" s="1" t="str">
-        <f>IF(AND($O12&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O12-1)+MID(K$11,$O12,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O13">
@@ -1953,155 +1953,155 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(D$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(E$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(F$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(G$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(H$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(I$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(J$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K14" s="1" t="str">
-        <f>IF(AND($O13&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O13-1)+MID(K$11,$O13,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O19" si="5">+O13+1</f>
+        <f t="shared" ref="O14:O19" si="7">+O13+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(D$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(E$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(F$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(G$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(H$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(I$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(J$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K15" s="1" t="str">
-        <f>IF(AND($O14&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O14-1)+MID(K$11,$O14,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="D16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(D$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(E$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(F$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(G$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(H$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(I$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(J$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K16" s="1" t="str">
-        <f>IF(AND($O15&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O15-1)+MID(K$11,$O15,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="4:117" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:117" x14ac:dyDescent="0.35">
       <c r="D17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(D$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(E$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(F$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(G$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(H$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(I$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(J$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K17" s="1" t="str">
-        <f>IF(AND($O16&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O16-1)+MID(K$11,$O16,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R17" s="2"/>
@@ -2205,41 +2205,41 @@
       <c r="DL17" s="2"/>
       <c r="DM17" s="2"/>
     </row>
-    <row r="18" spans="4:117" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:117" x14ac:dyDescent="0.35">
       <c r="D18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(D$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(E$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(F$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(G$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(H$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(I$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(J$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K18" s="1" t="str">
-        <f>IF(AND($O17&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O17-1)+MID(K$11,$O17,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="R18" s="2"/>
@@ -2343,41 +2343,41 @@
       <c r="DL18" s="2"/>
       <c r="DM18" s="2"/>
     </row>
-    <row r="19" spans="4:117" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:117" x14ac:dyDescent="0.35">
       <c r="D19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(D$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(E$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(F$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(G$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(H$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(I$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(J$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K19" s="1" t="str">
-        <f>IF(AND($O18&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O18-1)+MID(K$11,$O18,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="R19" s="2"/>
@@ -2481,37 +2481,37 @@
       <c r="DL19" s="2"/>
       <c r="DM19" s="2"/>
     </row>
-    <row r="20" spans="4:117" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:117" x14ac:dyDescent="0.35">
       <c r="D20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,D$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(D$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,E$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(E$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,F$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(F$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,G$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(G$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,H$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(H$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,I$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(I$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,J$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(J$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K20" s="1" t="str">
-        <f>IF(AND($O19&lt;=NumCar,K$12&lt;=NumLet),MID(Padre1,(2*$O19-1)+MID(K$11,$O19,1),1),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
